--- a/planilhas/Tickets_Retornados.xlsx
+++ b/planilhas/Tickets_Retornados.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Tickets\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD08AF2-0A79-4F7B-B971-ABCC27C2535E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5055ADA6-3178-4960-822F-F19E3EF46370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="1380" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="146">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -44,6 +57,420 @@
   </si>
   <si>
     <t>Atualizado em</t>
+  </si>
+  <si>
+    <t>[TODOS] Implementações no sistema para LEI Nº 14.654</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>Melhoria</t>
+  </si>
+  <si>
+    <t>1 dia 5 horas atrás</t>
+  </si>
+  <si>
+    <t>6 horas 42 minutos atrás</t>
+  </si>
+  <si>
+    <t>[ SARZEDO - MG ] - Reapresentação da produção</t>
+  </si>
+  <si>
+    <t>Sarzedo</t>
+  </si>
+  <si>
+    <t>Pedido de Serviço</t>
+  </si>
+  <si>
+    <t>1 minuto atrás</t>
+  </si>
+  <si>
+    <t>[Divinopolis-MG] [Laboratório] Inserir com copia permanece o mesmo número de solicitação</t>
+  </si>
+  <si>
+    <t>Novo</t>
+  </si>
+  <si>
+    <t>Erro</t>
+  </si>
+  <si>
+    <t>2 dias 6 horas atrás</t>
+  </si>
+  <si>
+    <t>1 dia 2 horas atrás</t>
+  </si>
+  <si>
+    <t>[Sarzedo-MG] [Produção] Sistema não está gerando produção BPA de Janeiro de 2024</t>
+  </si>
+  <si>
+    <t>2 dias 8 horas atrás</t>
+  </si>
+  <si>
+    <t>[Governador valadares-MG][ficha de vacinação] - excluir UUID</t>
+  </si>
+  <si>
+    <t>Governador Valadares</t>
+  </si>
+  <si>
+    <t>5 dias 1 hora atrás</t>
+  </si>
+  <si>
+    <t>4 horas 59 minutos atrás</t>
+  </si>
+  <si>
+    <t>[João Pessoa-PB] [Hospital] Carga de Especialidade Leito, Caráter de Internação e Liberação de Crítica no cadastro AIH</t>
+  </si>
+  <si>
+    <t>João Pessoa</t>
+  </si>
+  <si>
+    <t>17 minutos atrás</t>
+  </si>
+  <si>
+    <t>[Botucatu - SP] [Laboratório] [Integração Worklist / Geração Worklist] Necessário novos horários para geração do Worklist e integração dos resultados</t>
+  </si>
+  <si>
+    <t>Botucatu-SP</t>
+  </si>
+  <si>
+    <t>5 dias 7 horas atrás</t>
+  </si>
+  <si>
+    <t>4 horas 57 minutos atrás</t>
+  </si>
+  <si>
+    <t>[Pompeu - MG] [Estratégia de Saúde da Família] Relatório de Famílias por Micro àrea não está filtrando pelo número da família.</t>
+  </si>
+  <si>
+    <t>Pompéu</t>
+  </si>
+  <si>
+    <t>13/03/2024</t>
+  </si>
+  <si>
+    <t>6 dias atrás</t>
+  </si>
+  <si>
+    <t>[Todos][UPA/hospital] - Paciente com recepção cancelada aparece na fila de espera da triagem</t>
+  </si>
+  <si>
+    <t>Santa Luzia</t>
+  </si>
+  <si>
+    <t>[Volta Redonda-RJ] [Hospital] Cuidados Solicitados não Aparece na Tela de Checagem</t>
+  </si>
+  <si>
+    <t>Volta Redonda-RJ</t>
+  </si>
+  <si>
+    <t>5 dias 23 horas atrás</t>
+  </si>
+  <si>
+    <t>[Itaúna-MG][B.I] - Visão "Relação de Famílias por Microarea" (Codigo 10)</t>
+  </si>
+  <si>
+    <t>Itaúna</t>
+  </si>
+  <si>
+    <t>12/03/2024</t>
+  </si>
+  <si>
+    <t>[Divinópolis-MG] [Regulação] Relatório Ações da Agenda</t>
+  </si>
+  <si>
+    <t>[Divinopolis-MG] [Ambulatório] Histórico da solicitação de procedimento de serviço</t>
+  </si>
+  <si>
+    <t>4 dias 23 horas atrás</t>
+  </si>
+  <si>
+    <t>[Todos][Regulação] - Erro na fila de espera por serviço de saúde</t>
+  </si>
+  <si>
+    <t>11/03/2024</t>
+  </si>
+  <si>
+    <t>[Patos de Minas - MG] [AMBULATÓRIO] AGENDAMENTO DIRETO DE SERVIÇO</t>
+  </si>
+  <si>
+    <t>Patos de Minas</t>
+  </si>
+  <si>
+    <t>[João Pessoa-PB] [UPA] O nome do profissional não está saindo no atestado, na tela de evolução.</t>
+  </si>
+  <si>
+    <t>06/03/2024</t>
+  </si>
+  <si>
+    <t>1 dia 22 horas atrás</t>
+  </si>
+  <si>
+    <t>[João Pessoa-PB] [UPA] Atestado -Dados da Autorização do CID não imprime via histórico.</t>
+  </si>
+  <si>
+    <t>[Governador Valadares-MG][Backup] - Oficio para disponibilização do backup dos dados da Saúde</t>
+  </si>
+  <si>
+    <t>5 dias atrás</t>
+  </si>
+  <si>
+    <t>[Jaboticabal-SP] [Laboratório] Resultados anterios na web</t>
+  </si>
+  <si>
+    <t>Jaboticabal-SP</t>
+  </si>
+  <si>
+    <t>05/03/2024</t>
+  </si>
+  <si>
+    <t>[Volta Redonda-RJ] [Hospital] Não gera registro de entrada do paciente</t>
+  </si>
+  <si>
+    <t>[Petrolina-PE][Ambulatório] Sistema não agenda na data selecionada pela Solicitação de Procedimento de Serviço</t>
+  </si>
+  <si>
+    <t>04/03/2024</t>
+  </si>
+  <si>
+    <t>5 dias 21 horas atrás</t>
+  </si>
+  <si>
+    <t>[Parnamirim-RN] [PEC] Fila para atendimento não lista usuário com atendimento editado.</t>
+  </si>
+  <si>
+    <t>[João Pessoa-PB] [Almoxarifado] Relatório de estoque de produtos não respeita filtros quando gerado em Excel.</t>
+  </si>
+  <si>
+    <t>[Sarzedo-MG] [ZOO] Tela de animal não traz proprietário oriundo da tela usuário do sistema. Está trazendo da tela de pessoa, errado!</t>
+  </si>
+  <si>
+    <t>[Contagem-MG] [Controle de endemias] Fichas de notificação modificando a ordem dos itens após edição</t>
+  </si>
+  <si>
+    <t>Contagem</t>
+  </si>
+  <si>
+    <t>[João Pessoa-PB] [Almoxarifado] Permitir visualizar histórico de produtos em uma determinada data nas unidades de saúde (independente de movimentação).</t>
+  </si>
+  <si>
+    <t>[Governador Valadares-MG][Administração] - Campo "exportar esus" não funciona.</t>
+  </si>
+  <si>
+    <t>[São Domingos do Prata-MG] [ambulatório] - Não está sendo possível “cancelar recepção/desistencia do usuário"</t>
+  </si>
+  <si>
+    <t>São Domingos da Prata</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>[Passos-MG] [Vigilância Sanitária] O Risco não muda após alterar resposta de pergunta condicional ou remover Atividade CNAE da tela Pessoa Jurídica</t>
+  </si>
+  <si>
+    <t>Passos</t>
+  </si>
+  <si>
+    <t>[Macaé- RJ] [Almoxarifado] Adicionar informação de fabricante</t>
+  </si>
+  <si>
+    <t>29/02/2024</t>
+  </si>
+  <si>
+    <t>[Macaé- RJ] [Almoxarifado] Informações faltantes no relatório de Inventario</t>
+  </si>
+  <si>
+    <t>[Carmo do Paranaíba - MG] ERRO 500</t>
+  </si>
+  <si>
+    <t>Carmo do Paranaiba</t>
+  </si>
+  <si>
+    <t>28/02/2024</t>
+  </si>
+  <si>
+    <t>[Sorocaba-SP] - [TFD] - Registro de despesas</t>
+  </si>
+  <si>
+    <t>Sorocaba-SP</t>
+  </si>
+  <si>
+    <t>[Administração/ambulatório] Atendimento compartilhado puxando cnes aleatório do profissional e impactando na produção dos profissionais</t>
+  </si>
+  <si>
+    <t>Montes Claros</t>
+  </si>
+  <si>
+    <t>27/02/2024</t>
+  </si>
+  <si>
+    <t>2 dias 1 hora atrás</t>
+  </si>
+  <si>
+    <t>[Parnamirim-RN] [Ambulatório] Falta data na impressão do relatório Recepção/Atendimento.</t>
+  </si>
+  <si>
+    <t>21/02/2024</t>
+  </si>
+  <si>
+    <t>[Volta Redonda-RJ] [Hospital] Botão Reservar Travado</t>
+  </si>
+  <si>
+    <t>[Volta Redonda-RJ][Ambulatório][Exportação de Produção RAAS] Dados do Tipo de Gestão está incorreto no arquivo RAAS (Gestão Municipal)</t>
+  </si>
+  <si>
+    <t>20/02/2024</t>
+  </si>
+  <si>
+    <t>16 minutos atrás</t>
+  </si>
+  <si>
+    <t>[Pompeu][Regulação] - Erro ao abrir contratos de serviços</t>
+  </si>
+  <si>
+    <t>14/02/2024</t>
+  </si>
+  <si>
+    <t>[MontesClaros-MG] [AtendimentoSoap]Erro após salvar o atendimento.</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>[Curvelo-MG][Admnistração] - Incluir parametro na ficha Ficha do recibo da dispensação</t>
+  </si>
+  <si>
+    <t>[ VIVVER- BH] [ DESATIVAÇÃO DE E-MAIL]</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>[ITACARAMBI - MG][Admnistração] - Incluir parametros na ficha V0445 - Ficha do recibo da dispensação</t>
+  </si>
+  <si>
+    <t>Itacarambi</t>
+  </si>
+  <si>
+    <t>08/02/2024</t>
+  </si>
+  <si>
+    <t>[Volta Redonda-RJ] [editor de fichas] Via de Administração não está saindo na prescrição.</t>
+  </si>
+  <si>
+    <t>[Contagem][Laboratório][Solicitação de exame] Criar parâmetro para permitir a obrigatoriedade de preenchimento do campo de "Justifcativa" que será criado.</t>
+  </si>
+  <si>
+    <t>07/02/2024</t>
+  </si>
+  <si>
+    <t>[Divinopolis-MG] Alteração por qualquer usuário na tela de Evolução do atendimento</t>
+  </si>
+  <si>
+    <t>01/02/2024</t>
+  </si>
+  <si>
+    <t>[Sorocaba-SP] - [Ambulatório] &gt; Cadastro de Usuário - E-mail inválido e telefone 8 dígitos</t>
+  </si>
+  <si>
+    <t>5 dias 5 horas atrás</t>
+  </si>
+  <si>
+    <t>[São Luis-MA][Ambulatório] tela para aceitar os cadastros do APP - Prontuários externos nao esta funcionando</t>
+  </si>
+  <si>
+    <t>30/01/2024</t>
+  </si>
+  <si>
+    <t>[Petrolina-PE][Regulação] - Permitir selecionar lista de Unidades na agenda de serviço</t>
+  </si>
+  <si>
+    <t>29/01/2024</t>
+  </si>
+  <si>
+    <t>5 dias 6 horas atrás</t>
+  </si>
+  <si>
+    <t>[Petrolina-PE][Regulação] Erro na negação de Unidade executante</t>
+  </si>
+  <si>
+    <t>[São Luis- MA] [APP CIDADÃO] Melhoria no APP - REGULAÇÃO</t>
+  </si>
+  <si>
+    <t>25/01/2024</t>
+  </si>
+  <si>
+    <t>7 horas 32 minutos atrás</t>
+  </si>
+  <si>
+    <t>[Volta Redonda-RJ] [Hospital] Filtro dos Meus Atendimentos e CBO.</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>[Contagem][VISA][Pessoa Física] - Campo de email obrigatório</t>
+  </si>
+  <si>
+    <t>11/01/2024</t>
+  </si>
+  <si>
+    <t>[Nova Lima-MG][Imunização] - Parametrização de imunos/estrategia.</t>
+  </si>
+  <si>
+    <t>Nova Lima</t>
+  </si>
+  <si>
+    <t>09/01/2024</t>
+  </si>
+  <si>
+    <t>1 dia 19 horas atrás</t>
+  </si>
+  <si>
+    <t>[Volta Redonda-RJ][Almoxarifado][Movimentação Consolidada de Produtos] Valores do relatório divergem</t>
+  </si>
+  <si>
+    <t>08/01/2024</t>
+  </si>
+  <si>
+    <t>1 dia atrás</t>
+  </si>
+  <si>
+    <t>[Todos][Ambulatório] - Erro ao realizar o cadastro do usuário no questionário e-SUS</t>
+  </si>
+  <si>
+    <t>29/11/2023</t>
+  </si>
+  <si>
+    <t>[Volta Redonda - RJ][Prontuário Eletrônico do Cidadão] Exames avaliados e solicitados não saem na impressão</t>
+  </si>
+  <si>
+    <t>07/11/2023</t>
+  </si>
+  <si>
+    <t>[Botucatu][Regulação] Erro ao Inativar Motivo</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>[Volta Redonda - RJ][PEC] Ajustes e inserção da marca visual (LOGO) no Comprovante de comparecimento</t>
+  </si>
+  <si>
+    <t>28/09/2023</t>
+  </si>
+  <si>
+    <t>29/08/2023</t>
+  </si>
+  <si>
+    <t>[Volta Redonda - RJ][Regulação] A função “Negação de procedimentos entre município solicitantes e municípios e unidades executantes” não está bloqueando as unidades parametrizadas</t>
+  </si>
+  <si>
+    <t>03/07/2023</t>
   </si>
 </sst>
 </file>
@@ -406,13 +833,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="18.88671875" customWidth="1"/>
+    <col min="7" max="7" width="23.21875" customWidth="1"/>
+    <col min="8" max="8" width="29.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -440,6 +872,1386 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>109135</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>109133</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>109119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>109116</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>109106</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>109105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>109070</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>108992</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>108991</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>108978</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>108975</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>108973</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>108966</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>108962</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>108961</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>108923</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>108919</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>108918</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>108910</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>108905</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>108902</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>108900</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>108895</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>108893</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>108889</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>108887</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>108886</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>108869</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>108868</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>108851</v>
+      </c>
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>108850</v>
+      </c>
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>108841</v>
+      </c>
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>108834</v>
+      </c>
+      <c r="C34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>108807</v>
+      </c>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>108753</v>
+      </c>
+      <c r="C36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>108738</v>
+      </c>
+      <c r="C37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>108729</v>
+      </c>
+      <c r="C38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
+        <v>96</v>
+      </c>
+      <c r="H38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>108703</v>
+      </c>
+      <c r="C39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>99</v>
+      </c>
+      <c r="H39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>108702</v>
+      </c>
+      <c r="C40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" t="s">
+        <v>101</v>
+      </c>
+      <c r="H40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>108700</v>
+      </c>
+      <c r="C41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>101</v>
+      </c>
+      <c r="H41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>108696</v>
+      </c>
+      <c r="C42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" t="s">
+        <v>101</v>
+      </c>
+      <c r="H42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>108688</v>
+      </c>
+      <c r="C43" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>107</v>
+      </c>
+      <c r="H43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>108678</v>
+      </c>
+      <c r="C44" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" t="s">
+        <v>107</v>
+      </c>
+      <c r="H44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>108672</v>
+      </c>
+      <c r="C45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" t="s">
+        <v>110</v>
+      </c>
+      <c r="H45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>108595</v>
+      </c>
+      <c r="C46" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" t="s">
+        <v>112</v>
+      </c>
+      <c r="H46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>108594</v>
+      </c>
+      <c r="C47" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>87</v>
+      </c>
+      <c r="F47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" t="s">
+        <v>112</v>
+      </c>
+      <c r="H47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>108569</v>
+      </c>
+      <c r="C48" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" t="s">
+        <v>116</v>
+      </c>
+      <c r="H48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>108566</v>
+      </c>
+      <c r="C49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" t="s">
+        <v>118</v>
+      </c>
+      <c r="H49" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>108553</v>
+      </c>
+      <c r="C50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" t="s">
+        <v>118</v>
+      </c>
+      <c r="H50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>108529</v>
+      </c>
+      <c r="C51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" t="s">
+        <v>122</v>
+      </c>
+      <c r="H51" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>108478</v>
+      </c>
+      <c r="C52" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>108362</v>
+      </c>
+      <c r="C53" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>72</v>
+      </c>
+      <c r="F53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" t="s">
+        <v>127</v>
+      </c>
+      <c r="H53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>108346</v>
+      </c>
+      <c r="C54" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>129</v>
+      </c>
+      <c r="F54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>130</v>
+      </c>
+      <c r="H54" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>108332</v>
+      </c>
+      <c r="C55" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" t="s">
+        <v>133</v>
+      </c>
+      <c r="H55" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>107923</v>
+      </c>
+      <c r="C56" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" t="s">
+        <v>136</v>
+      </c>
+      <c r="H56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>107648</v>
+      </c>
+      <c r="C57" t="s">
+        <v>137</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" t="s">
+        <v>138</v>
+      </c>
+      <c r="H57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>107431</v>
+      </c>
+      <c r="C58" t="s">
+        <v>139</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" t="s">
+        <v>140</v>
+      </c>
+      <c r="H58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>106999</v>
+      </c>
+      <c r="C59" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>142</v>
+      </c>
+      <c r="H59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>106696</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>143</v>
+      </c>
+      <c r="H60" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>105890</v>
+      </c>
+      <c r="C61" t="s">
+        <v>144</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" t="s">
+        <v>145</v>
+      </c>
+      <c r="H61" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
